--- a/scraper/top_remaining_spreadsheets_states/top_remaining_IL.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_IL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>STATE</t>
   </si>
@@ -201,12 +201,6 @@
   </si>
   <si>
     <t>100X</t>
-  </si>
-  <si>
-    <t>ULTIMATE MILLIONS ($30)</t>
-  </si>
-  <si>
-    <t>2019-02-09</t>
   </si>
   <si>
     <t>20 X 20</t>
@@ -557,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1576,13 +1570,13 @@
         <v>62</v>
       </c>
       <c r="D51">
-        <v>264</v>
+        <v>854</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1590,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>854</v>
+        <v>959</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1610,38 +1604,18 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
         <v>65</v>
       </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
       <c r="D53">
-        <v>959</v>
+        <v>253</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54">
-        <v>253</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_IL.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_IL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>STATE</t>
   </si>
@@ -44,25 +44,37 @@
     <t>Double Doubler</t>
   </si>
   <si>
-    <t>2019-02-17</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>10 YEARS OF CASH ($1)</t>
+  </si>
+  <si>
+    <t>LOOSE CHANGE MULTIPLIER</t>
+  </si>
+  <si>
+    <t>7-11-21</t>
+  </si>
+  <si>
+    <t>LUCKY 7</t>
+  </si>
+  <si>
+    <t>5X</t>
   </si>
   <si>
     <t>$50 Frenzy</t>
   </si>
   <si>
+    <t>HOLIDAY CASH ($1)</t>
+  </si>
+  <si>
     <t>FROSTY $5,000 ($1)</t>
   </si>
   <si>
-    <t>7-11-21</t>
-  </si>
-  <si>
-    <t>5X</t>
-  </si>
-  <si>
-    <t>HOLIDAY CASH ($1)</t>
-  </si>
-  <si>
-    <t>10 YEARS OF CASH ($1)</t>
+    <t>Win Pigs Fly</t>
+  </si>
+  <si>
+    <t>2019-03-26</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -71,21 +83,24 @@
     <t>WINTER GREEN ($2)</t>
   </si>
   <si>
+    <t>WILD CHERRY TRIPLER</t>
+  </si>
+  <si>
+    <t>10 YEARS OF CASH ($2)</t>
+  </si>
+  <si>
+    <t>LUCKY 7 DOUBLER</t>
+  </si>
+  <si>
+    <t>HOT $1,000S($2)</t>
+  </si>
+  <si>
+    <t>10X®</t>
+  </si>
+  <si>
     <t>Fireball 5s</t>
   </si>
   <si>
-    <t>HOT $1,000S($2)</t>
-  </si>
-  <si>
-    <t>$100 Frenzy</t>
-  </si>
-  <si>
-    <t>10X®</t>
-  </si>
-  <si>
-    <t>10 YEARS OF CASH ($2)</t>
-  </si>
-  <si>
     <t>Double Your Luck</t>
   </si>
   <si>
@@ -98,21 +113,21 @@
     <t>$3.00 Games</t>
   </si>
   <si>
-    <t>The MS Project</t>
-  </si>
-  <si>
     <t>Fruity Fortune</t>
   </si>
   <si>
+    <t>SUPER 7S ($3)</t>
+  </si>
+  <si>
+    <t>THE MS PROJECT</t>
+  </si>
+  <si>
     <t>Bingo</t>
   </si>
   <si>
     <t>Crossword</t>
   </si>
   <si>
-    <t>SUPER 7S ($3)</t>
-  </si>
-  <si>
     <t>CANDY CANE CROSSWORD ($3)</t>
   </si>
   <si>
@@ -125,94 +140,124 @@
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Million Dollar Payday</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>BIG WIN ($5)</t>
+  </si>
+  <si>
+    <t>POWER 5S</t>
+  </si>
+  <si>
+    <t>LUCKY 7 TRIPLER</t>
+  </si>
+  <si>
+    <t>AMETHYST 7s ($5)</t>
+  </si>
+  <si>
+    <t>WAVE OF $500S ($5)</t>
+  </si>
+  <si>
+    <t>Diamond Mine 9X</t>
+  </si>
+  <si>
     <t>HOLIDAY MAGIC ($5)</t>
   </si>
   <si>
-    <t>BIG WIN ($5)</t>
+    <t>$250 Frenzy</t>
+  </si>
+  <si>
+    <t>25X</t>
   </si>
   <si>
     <t>Black Ice 7s</t>
   </si>
   <si>
-    <t>WAVE OF $500S ($5)</t>
-  </si>
-  <si>
-    <t>25X</t>
-  </si>
-  <si>
-    <t>$250 Frenzy</t>
-  </si>
-  <si>
-    <t>AMETHYST 7s ($5)</t>
-  </si>
-  <si>
-    <t>Diamond Mine 9X</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>50X</t>
+  </si>
+  <si>
+    <t>CASH EXTREME! ($10)</t>
+  </si>
+  <si>
     <t>Break the Bank</t>
   </si>
   <si>
-    <t>50X</t>
-  </si>
-  <si>
-    <t>CASH EXTREME! ($10)</t>
-  </si>
-  <si>
-    <t>$300,000,000 Cash Spectacular</t>
+    <t>$250,000 Crossword</t>
+  </si>
+  <si>
+    <t>$250,000,000 Cash Spectacular</t>
   </si>
   <si>
     <t>IL LOTTERY BLACK ($10)</t>
   </si>
   <si>
-    <t>$250,000,000 Cash Spectacular</t>
-  </si>
-  <si>
-    <t>$250,000 Crossword</t>
+    <t>LUCKY 7 MULTIPLIER</t>
   </si>
   <si>
     <t>EMERALD 10s ($10)</t>
   </si>
   <si>
+    <t>$1,000,000 Cash</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>$5,000 A WEEK FOR LIFE!</t>
+  </si>
+  <si>
+    <t>2019-04-05</t>
+  </si>
+  <si>
     <t>WILLY WONKA GOLDEN TICKET™</t>
   </si>
   <si>
-    <t>$5,000 A WEEK FOR LIFE!</t>
-  </si>
-  <si>
-    <t>2019-02-11</t>
+    <t>2019-03-29</t>
   </si>
   <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>MERRY MILLIONAIRE ($20)</t>
+  </si>
+  <si>
     <t>Casino Millions</t>
   </si>
   <si>
-    <t>MERRY MILLIONAIRE ($20)</t>
-  </si>
-  <si>
-    <t>$1000 Frenzy</t>
-  </si>
-  <si>
     <t>Illinois Millions</t>
   </si>
   <si>
+    <t>ULTIMATE MILLIONS ($30)</t>
+  </si>
+  <si>
+    <t>LUCKY 7 DELUXE</t>
+  </si>
+  <si>
     <t>100X</t>
   </si>
   <si>
     <t>20 X 20</t>
   </si>
   <si>
+    <t>$25.00 Games</t>
+  </si>
+  <si>
+    <t>$1,000,000 JUMBO CROSSWORD 10X</t>
+  </si>
+  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
+    <t>$5 Million Jackpot</t>
+  </si>
+  <si>
     <t>$10 Million Cash Bonanza</t>
-  </si>
-  <si>
-    <t>$5 Million Jackpot</t>
   </si>
 </sst>
 </file>
@@ -551,7 +596,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +638,7 @@
         <v>261</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -610,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="E3">
-        <v>897380</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -630,10 +675,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>276</v>
+        <v>7301</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -653,7 +698,7 @@
         <v>252</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -670,10 +715,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>265</v>
+        <v>7295</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -690,10 +735,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E7">
-        <v>1249</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -710,10 +755,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5696</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -724,16 +769,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -744,16 +789,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -764,19 +809,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
-      </c>
-      <c r="D11">
-        <v>281</v>
-      </c>
-      <c r="E11">
-        <v>713</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -784,16 +829,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="E12">
-        <v>3914</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -804,16 +849,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -824,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>286</v>
@@ -844,16 +889,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>257</v>
+        <v>7296</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -864,16 +909,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -884,16 +929,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -904,16 +949,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -924,16 +969,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -944,16 +989,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -964,16 +1009,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -984,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1004,16 +1049,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E23">
-        <v>800</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1024,16 +1069,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>273</v>
+        <v>7300</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1044,16 +1089,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1064,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1084,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>670</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1104,16 +1149,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1124,16 +1169,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1144,19 +1189,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="E30">
-        <v>13148</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1164,16 +1209,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
       <c r="D31">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1184,13 +1229,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1204,16 +1249,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="E33">
-        <v>1704</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1224,16 +1269,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>259</v>
+        <v>7297</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1244,16 +1289,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1264,16 +1309,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1284,16 +1329,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>10942</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1304,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1324,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>967</v>
+        <v>274</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1344,16 +1389,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1445</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1364,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>893</v>
+        <v>267</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1384,16 +1429,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1404,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1424,16 +1469,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1444,19 +1489,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D45">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1464,16 +1509,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1484,16 +1529,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47">
-        <v>275</v>
+        <v>893</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1504,16 +1549,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="E48">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1524,16 +1569,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49">
-        <v>260</v>
+        <v>7298</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1544,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1564,19 +1609,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
       <c r="D51">
-        <v>854</v>
+        <v>206</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1584,19 +1629,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>959</v>
+        <v>114</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1604,18 +1649,218 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53">
+        <v>246</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54">
+        <v>275</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>227</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56">
+        <v>260</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57">
+        <v>264</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58">
+        <v>7299</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59">
+        <v>269</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>854</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>294</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62">
         <v>253</v>
       </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>959</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
         <v>9</v>
       </c>
     </row>
